--- a/jbst/data/vectors.xlsx
+++ b/jbst/data/vectors.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE98F8-4530-4710-8720-524B5171E442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0F9D7A-7E6E-47F3-A927-E9B6AEDD18B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +790,7 @@
         <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
